--- a/database/industries/darou/defara/cost/quarterly.xlsx
+++ b/database/industries/darou/defara/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\defara\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\defara\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E9B899-F815-495D-9356-38C9261DB55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A55F5-8DFB-4DD5-8A02-7C0F55E165EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -706,16 +721,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I184"/>
+  <dimension ref="B1:N184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -724,8 +739,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,8 +756,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,8 +773,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -758,8 +788,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -770,8 +805,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -782,8 +822,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -792,8 +837,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -814,8 +864,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -824,208 +889,348 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>1132187</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1009685</v>
+      </c>
+      <c r="G10" s="9">
+        <v>440882</v>
+      </c>
+      <c r="H10" s="9">
+        <v>684337</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1069956</v>
+      </c>
+      <c r="J10" s="9">
         <v>1374108</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>1498138</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>1244113</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>1219579</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>3878814</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>41843</v>
+      </c>
+      <c r="F11" s="11">
+        <v>36195</v>
+      </c>
+      <c r="G11" s="11">
+        <v>44227</v>
+      </c>
+      <c r="H11" s="11">
+        <v>50543</v>
+      </c>
+      <c r="I11" s="11">
+        <v>43875</v>
+      </c>
+      <c r="J11" s="11">
         <v>46035</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>61118</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>68623</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>62710</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>81496</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>107694</v>
+      </c>
+      <c r="F12" s="9">
+        <v>104492</v>
+      </c>
+      <c r="G12" s="9">
+        <v>103769</v>
+      </c>
+      <c r="H12" s="9">
+        <v>126677</v>
+      </c>
+      <c r="I12" s="9">
+        <v>109894</v>
+      </c>
+      <c r="J12" s="9">
         <v>116243</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>138699</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>142789</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>189646</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>211716</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>1281724</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1150372</v>
+      </c>
+      <c r="G13" s="13">
+        <v>588878</v>
+      </c>
+      <c r="H13" s="13">
+        <v>861557</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1223725</v>
+      </c>
+      <c r="J13" s="13">
         <v>1536386</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>1697955</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>1455525</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>1471935</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>4172026</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>-366</v>
+      </c>
+      <c r="F14" s="9">
+        <v>818</v>
+      </c>
+      <c r="G14" s="9">
+        <v>-21654</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-4816</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-8706</v>
+      </c>
+      <c r="J14" s="9">
         <v>-6538</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>151</v>
       </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
         <v>-29140</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>1281358</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1151190</v>
+      </c>
+      <c r="G15" s="13">
+        <v>567224</v>
+      </c>
+      <c r="H15" s="13">
+        <v>856741</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1215019</v>
+      </c>
+      <c r="J15" s="13">
         <v>1529848</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>1698106</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>1455525</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>1471935</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>4142886</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-819</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3886</v>
+      </c>
+      <c r="G16" s="9">
+        <v>12101</v>
+      </c>
+      <c r="H16" s="9">
+        <v>8130</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-23839</v>
+      </c>
+      <c r="J16" s="9">
         <v>-25491</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-33228</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>27229</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>54426</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-141710</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-249</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-2</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
         <v>-48</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>14</v>
       </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
         <v>-2313</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>2307</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>1280539</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1155076</v>
+      </c>
+      <c r="G18" s="15">
+        <v>579076</v>
+      </c>
+      <c r="H18" s="15">
+        <v>864869</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1191180</v>
+      </c>
+      <c r="J18" s="15">
         <v>1504309</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>1664892</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>1482754</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>1524048</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>4003483</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1033,107 +1238,182 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>158928</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>12781</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>242507</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>154479</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>110149</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>7151</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-48002</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-84661</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-84270</v>
+      </c>
+      <c r="I20" s="9">
+        <v>53570</v>
+      </c>
+      <c r="J20" s="9">
         <v>12781</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-242507</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-154479</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-110149</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-119272</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>1287690</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1107075</v>
+      </c>
+      <c r="G21" s="13">
+        <v>494414</v>
+      </c>
+      <c r="H21" s="13">
+        <v>939527</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1244750</v>
+      </c>
+      <c r="J21" s="13">
         <v>1517090</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>1440304</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>1570782</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1568378</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>3994360</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>-14050</v>
       </c>
       <c r="G22" s="9">
+        <v>14073</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
         <v>3498</v>
       </c>
-      <c r="H22" s="9">
+      <c r="M22" s="9">
         <v>363</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>-3855</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>1287667</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1093025</v>
+      </c>
+      <c r="G23" s="13">
+        <v>508487</v>
+      </c>
+      <c r="H23" s="13">
+        <v>939527</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1244750</v>
+      </c>
+      <c r="J23" s="13">
         <v>1517090</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>1440304</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>1574280</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1568741</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>3990505</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1142,8 +1422,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1152,8 +1437,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1162,10 +1452,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1184,8 +1479,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1194,150 +1504,245 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9">
+        <v>31</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9">
         <v>19360197</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>159693397</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>336770547</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="11">
+        <v>31</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11">
         <v>216279</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>225868</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>238382</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="9">
+        <v>31</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9">
         <v>133697</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>92385</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>73872</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>1511288</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1444777</v>
+      </c>
+      <c r="G32" s="11">
+        <v>13979634</v>
+      </c>
+      <c r="H32" s="11">
+        <v>2533984</v>
+      </c>
+      <c r="I32" s="11">
+        <v>2287233</v>
+      </c>
+      <c r="J32" s="11">
         <v>2390053</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>2197322</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>26782669</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>1141271</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>10185182</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>363961</v>
+      </c>
+      <c r="F33" s="9">
+        <v>285276</v>
+      </c>
+      <c r="G33" s="9">
+        <v>285276</v>
+      </c>
+      <c r="H33" s="9">
+        <v>422550</v>
+      </c>
+      <c r="I33" s="9">
+        <v>6057501</v>
+      </c>
+      <c r="J33" s="9">
         <v>502059</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>1875249</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1730053</v>
+      </c>
+      <c r="G34" s="13">
+        <v>14264910</v>
+      </c>
+      <c r="H34" s="13">
+        <v>2956534</v>
+      </c>
+      <c r="I34" s="13">
+        <v>8344734</v>
+      </c>
+      <c r="J34" s="13">
         <v>2892112</v>
       </c>
-      <c r="F34" s="13">
+      <c r="K34" s="13">
         <v>2197322</v>
       </c>
-      <c r="G34" s="13">
+      <c r="L34" s="13">
         <v>46492842</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>161152921</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>347267983</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1346,8 +1751,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1356,8 +1766,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1366,10 +1781,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1388,8 +1808,23 @@
       <c r="I38" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1398,150 +1833,245 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="9">
+        <v>31</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="9">
         <v>845230000</v>
       </c>
-      <c r="G40" s="9">
+      <c r="L40" s="9">
         <v>288985000</v>
       </c>
-      <c r="H40" s="9">
+      <c r="M40" s="9">
         <v>220310000</v>
       </c>
-      <c r="I40" s="9">
+      <c r="N40" s="9">
         <v>166435000</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="11">
+        <v>31</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="11">
         <v>185189</v>
       </c>
-      <c r="G41" s="11">
+      <c r="L41" s="11">
         <v>112175</v>
       </c>
-      <c r="H41" s="11">
+      <c r="M41" s="11">
         <v>119721</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>233972</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="9">
+        <v>31</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="9">
         <v>709002</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>86535</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>70422</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>206799</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
+        <v>1353746</v>
+      </c>
+      <c r="F43" s="11">
+        <v>150411279</v>
+      </c>
+      <c r="G43" s="11">
+        <v>-148519589</v>
+      </c>
+      <c r="H43" s="11">
+        <v>73144</v>
+      </c>
+      <c r="I43" s="11">
+        <v>1582052</v>
+      </c>
+      <c r="J43" s="11">
         <v>-171047</v>
       </c>
-      <c r="F43" s="11">
+      <c r="K43" s="11">
         <v>50024704</v>
       </c>
-      <c r="G43" s="11">
+      <c r="L43" s="11">
         <v>11878924</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>17694611</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>88395834</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
+        <v>485571</v>
+      </c>
+      <c r="F44" s="9">
+        <v>19839</v>
+      </c>
+      <c r="G44" s="9">
+        <v>223380</v>
+      </c>
+      <c r="H44" s="9">
+        <v>5788891</v>
+      </c>
+      <c r="I44" s="9">
+        <v>-5313840</v>
+      </c>
+      <c r="J44" s="9">
         <v>161919</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
+        <v>1839317</v>
+      </c>
+      <c r="F45" s="13">
+        <v>150431118</v>
+      </c>
+      <c r="G45" s="13">
+        <v>-148296209</v>
+      </c>
+      <c r="H45" s="13">
+        <v>5862035</v>
+      </c>
+      <c r="I45" s="13">
+        <v>-3731788</v>
+      </c>
+      <c r="J45" s="13">
         <v>-9128</v>
       </c>
-      <c r="F45" s="13">
+      <c r="K45" s="13">
         <v>896148895</v>
       </c>
-      <c r="G45" s="13">
+      <c r="L45" s="13">
         <v>301062634</v>
       </c>
-      <c r="H45" s="13">
+      <c r="M45" s="13">
         <v>238194754</v>
       </c>
-      <c r="I45" s="13">
+      <c r="N45" s="13">
         <v>255271605</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1550,8 +2080,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1560,8 +2095,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1570,10 +2110,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1592,8 +2137,23 @@
       <c r="I49" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1602,150 +2162,245 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="9">
+        <v>31</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="9">
         <v>932076534</v>
       </c>
-      <c r="G51" s="9">
+      <c r="L51" s="9">
         <v>148651800</v>
       </c>
-      <c r="H51" s="9">
+      <c r="M51" s="9">
         <v>61004850</v>
       </c>
-      <c r="I51" s="9">
+      <c r="N51" s="9">
         <v>209909074</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="11">
+        <v>31</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="11">
         <v>247714</v>
       </c>
-      <c r="G52" s="11">
+      <c r="L52" s="11">
         <v>102586</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>100457</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>-57766</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="9">
+        <v>31</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="9">
         <v>706665</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>127847</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>89845</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>177460</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
+        <v>1420257</v>
+      </c>
+      <c r="F54" s="11">
+        <v>137876422</v>
+      </c>
+      <c r="G54" s="11">
+        <v>-135913044</v>
+      </c>
+      <c r="H54" s="11">
+        <v>319895</v>
+      </c>
+      <c r="I54" s="11">
+        <v>1479232</v>
+      </c>
+      <c r="J54" s="11">
         <v>21684</v>
       </c>
-      <c r="F54" s="11">
+      <c r="K54" s="11">
         <v>95372821</v>
       </c>
-      <c r="G54" s="11">
+      <c r="L54" s="11">
         <v>37520322</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>29931595</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>54879357</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
+        <v>564256</v>
+      </c>
+      <c r="F55" s="9">
+        <v>19839</v>
+      </c>
+      <c r="G55" s="9">
+        <v>-143609</v>
+      </c>
+      <c r="H55" s="9">
+        <v>153940</v>
+      </c>
+      <c r="I55" s="9">
+        <v>241602</v>
+      </c>
+      <c r="J55" s="9">
         <v>314910</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>1984513</v>
+      </c>
+      <c r="F56" s="13">
+        <v>137896261</v>
+      </c>
+      <c r="G56" s="13">
+        <v>-136056653</v>
+      </c>
+      <c r="H56" s="13">
+        <v>473835</v>
+      </c>
+      <c r="I56" s="13">
+        <v>1720834</v>
+      </c>
+      <c r="J56" s="13">
         <v>336594</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>1028403734</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>186402555</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>91126747</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>264908125</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1754,8 +2409,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1764,8 +2424,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1774,10 +2439,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1796,8 +2466,23 @@
       <c r="I60" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1806,150 +2491,245 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="9">
+        <v>31</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="9">
         <v>19360197</v>
       </c>
-      <c r="G62" s="9">
+      <c r="L62" s="9">
         <v>159693397</v>
       </c>
-      <c r="H62" s="9">
+      <c r="M62" s="9">
         <v>336770547</v>
       </c>
-      <c r="I62" s="9">
+      <c r="N62" s="9">
         <v>293296473</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="11">
+        <v>31</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="11">
         <v>216279</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>225868</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>238382</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>530120</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="9">
+        <v>31</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="9">
         <v>133697</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>92385</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>73872</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>103211</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>1444777</v>
+      </c>
+      <c r="F65" s="11">
+        <v>13979634</v>
+      </c>
+      <c r="G65" s="11">
+        <v>1373089</v>
+      </c>
+      <c r="H65" s="11">
+        <v>2287233</v>
+      </c>
+      <c r="I65" s="11">
+        <v>2390053</v>
+      </c>
+      <c r="J65" s="11">
         <v>2197322</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>26782669</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>1141271</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>10185182</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>43701659</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
+        <v>285276</v>
+      </c>
+      <c r="F66" s="9">
+        <v>285276</v>
+      </c>
+      <c r="G66" s="9">
+        <v>652265</v>
+      </c>
+      <c r="H66" s="9">
+        <v>6057501</v>
+      </c>
+      <c r="I66" s="9">
+        <v>502059</v>
+      </c>
+      <c r="J66" s="9">
         <v>349068</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
+        <v>1730053</v>
+      </c>
+      <c r="F67" s="13">
+        <v>14264910</v>
+      </c>
+      <c r="G67" s="13">
+        <v>2025354</v>
+      </c>
+      <c r="H67" s="13">
+        <v>8344734</v>
+      </c>
+      <c r="I67" s="13">
+        <v>2892112</v>
+      </c>
+      <c r="J67" s="13">
         <v>2546390</v>
       </c>
-      <c r="F67" s="13">
+      <c r="K67" s="13">
         <v>46492842</v>
       </c>
-      <c r="G67" s="13">
+      <c r="L67" s="13">
         <v>161152921</v>
       </c>
-      <c r="H67" s="13">
+      <c r="M67" s="13">
         <v>347267983</v>
       </c>
-      <c r="I67" s="13">
+      <c r="N67" s="13">
         <v>337631463</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1958,8 +2738,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1968,8 +2753,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1978,10 +2768,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2000,8 +2795,23 @@
       <c r="I71" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2010,150 +2820,245 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="9">
+        <v>31</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="9">
         <v>24859</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>150351</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>320390</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="11">
+        <v>31</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="11">
         <v>145332</v>
       </c>
-      <c r="H74" s="11">
+      <c r="M74" s="11">
         <v>142574</v>
       </c>
-      <c r="I74" s="11">
+      <c r="N74" s="11">
         <v>169002</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" s="9">
+        <v>31</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="9">
         <v>986499</v>
       </c>
-      <c r="H75" s="9">
+      <c r="M75" s="9">
         <v>620227</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>779625</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>165175</v>
+      </c>
+      <c r="F76" s="11">
+        <v>180335</v>
+      </c>
+      <c r="G76" s="11">
+        <v>175982</v>
+      </c>
+      <c r="H76" s="11">
+        <v>377318</v>
+      </c>
+      <c r="I76" s="11">
+        <v>314879</v>
+      </c>
+      <c r="J76" s="11">
         <v>323971</v>
       </c>
-      <c r="F76" s="11">
+      <c r="K76" s="11">
         <v>320410</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>525121</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>538354</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>354274</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>705074</v>
+      </c>
+      <c r="F77" s="9">
+        <v>627573</v>
+      </c>
+      <c r="G77" s="9">
+        <v>686583</v>
+      </c>
+      <c r="H77" s="9">
+        <v>1027821</v>
+      </c>
+      <c r="I77" s="9">
+        <v>1282700</v>
+      </c>
+      <c r="J77" s="9">
         <v>1401999</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
+        <v>870249</v>
+      </c>
+      <c r="F78" s="13">
+        <v>807908</v>
+      </c>
+      <c r="G78" s="13">
+        <v>862565</v>
+      </c>
+      <c r="H78" s="13">
+        <v>1405139</v>
+      </c>
+      <c r="I78" s="13">
+        <v>1597579</v>
+      </c>
+      <c r="J78" s="13">
         <v>1725970</v>
       </c>
-      <c r="F78" s="13">
+      <c r="K78" s="13">
         <v>320410</v>
       </c>
-      <c r="G78" s="13">
+      <c r="L78" s="13">
         <v>1681811</v>
       </c>
-      <c r="H78" s="13">
+      <c r="M78" s="13">
         <v>1451506</v>
       </c>
-      <c r="I78" s="13">
+      <c r="N78" s="13">
         <v>1623291</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2162,8 +3067,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2172,8 +3082,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2182,10 +3097,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2204,8 +3124,23 @@
       <c r="I82" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2214,150 +3149,245 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F84" s="9">
+        <v>31</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" s="9">
         <v>554214</v>
       </c>
-      <c r="G84" s="9">
+      <c r="L84" s="9">
         <v>277698</v>
       </c>
-      <c r="H84" s="9">
+      <c r="M84" s="9">
         <v>264698</v>
       </c>
-      <c r="I84" s="9">
+      <c r="N84" s="9">
         <v>131346</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="11">
+        <v>31</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="11">
         <v>87516</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>63618</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>78558</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>148285</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="9">
+        <v>31</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86" s="9">
         <v>3641017</v>
       </c>
-      <c r="G86" s="9">
+      <c r="L86" s="9">
         <v>419529</v>
       </c>
-      <c r="H86" s="9">
+      <c r="M86" s="9">
         <v>720499</v>
       </c>
-      <c r="I86" s="9">
+      <c r="N86" s="9">
         <v>4202178</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
+        <v>219183</v>
+      </c>
+      <c r="F87" s="11">
+        <v>126875</v>
+      </c>
+      <c r="G87" s="11">
+        <v>253851</v>
+      </c>
+      <c r="H87" s="11">
+        <v>35819</v>
+      </c>
+      <c r="I87" s="11">
+        <v>179894</v>
+      </c>
+      <c r="J87" s="11">
         <v>216526</v>
       </c>
-      <c r="F87" s="11">
+      <c r="K87" s="11">
         <v>173938</v>
       </c>
-      <c r="G87" s="11">
+      <c r="L87" s="11">
         <v>252963</v>
       </c>
-      <c r="H87" s="11">
+      <c r="M87" s="11">
         <v>327585</v>
       </c>
-      <c r="I87" s="11">
+      <c r="N87" s="11">
         <v>554140</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
+        <v>880461</v>
+      </c>
+      <c r="F88" s="9">
+        <v>937467</v>
+      </c>
+      <c r="G88" s="9">
+        <v>729637</v>
+      </c>
+      <c r="H88" s="9">
+        <v>840958</v>
+      </c>
+      <c r="I88" s="9">
+        <v>1045422</v>
+      </c>
+      <c r="J88" s="9">
         <v>1020994</v>
       </c>
-      <c r="F88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
+        <v>1099644</v>
+      </c>
+      <c r="F89" s="13">
+        <v>1064342</v>
+      </c>
+      <c r="G89" s="13">
+        <v>983488</v>
+      </c>
+      <c r="H89" s="13">
+        <v>876777</v>
+      </c>
+      <c r="I89" s="13">
+        <v>1225316</v>
+      </c>
+      <c r="J89" s="13">
         <v>1237520</v>
       </c>
-      <c r="F89" s="13">
+      <c r="K89" s="13">
         <v>4456685</v>
       </c>
-      <c r="G89" s="13">
+      <c r="L89" s="13">
         <v>1013808</v>
       </c>
-      <c r="H89" s="13">
+      <c r="M89" s="13">
         <v>1391340</v>
       </c>
-      <c r="I89" s="13">
+      <c r="N89" s="13">
         <v>5035949</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2366,8 +3396,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2376,8 +3411,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2386,10 +3426,15 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2408,8 +3453,23 @@
       <c r="I93" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2418,150 +3478,245 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F95" s="9">
+        <v>31</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K95" s="9">
         <v>568540</v>
       </c>
-      <c r="G95" s="9">
+      <c r="L95" s="9">
         <v>152206</v>
       </c>
-      <c r="H95" s="9">
+      <c r="M95" s="9">
         <v>93090</v>
       </c>
-      <c r="I95" s="9">
+      <c r="N95" s="9">
         <v>166819</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F96" s="11">
+        <v>31</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="11">
         <v>129865</v>
       </c>
-      <c r="G96" s="11">
+      <c r="L96" s="11">
         <v>66376</v>
       </c>
-      <c r="H96" s="11">
+      <c r="M96" s="11">
         <v>79222</v>
       </c>
-      <c r="I96" s="11">
+      <c r="N96" s="11">
         <v>95685</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" s="9">
+        <v>31</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K97" s="9">
         <v>3270290</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>785801</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>742465</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>3239598</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
+        <v>204023</v>
+      </c>
+      <c r="F98" s="11">
+        <v>131228</v>
+      </c>
+      <c r="G98" s="11">
+        <v>52515</v>
+      </c>
+      <c r="H98" s="11">
+        <v>98258</v>
+      </c>
+      <c r="I98" s="11">
+        <v>105441</v>
+      </c>
+      <c r="J98" s="11">
         <v>285448</v>
       </c>
-      <c r="F98" s="11">
+      <c r="K98" s="11">
         <v>168697</v>
       </c>
-      <c r="G98" s="11">
+      <c r="L98" s="11">
         <v>239730</v>
       </c>
-      <c r="H98" s="11">
+      <c r="M98" s="11">
         <v>304802</v>
       </c>
-      <c r="I98" s="11">
+      <c r="N98" s="11">
         <v>376712</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
+        <v>928164</v>
+      </c>
+      <c r="F99" s="9">
+        <v>878457</v>
+      </c>
+      <c r="G99" s="9">
+        <v>388367</v>
+      </c>
+      <c r="H99" s="9">
+        <v>586079</v>
+      </c>
+      <c r="I99" s="9">
+        <v>964515</v>
+      </c>
+      <c r="J99" s="9">
         <v>1088660</v>
       </c>
-      <c r="F99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
+        <v>1132187</v>
+      </c>
+      <c r="F100" s="13">
+        <v>1009685</v>
+      </c>
+      <c r="G100" s="13">
+        <v>440882</v>
+      </c>
+      <c r="H100" s="13">
+        <v>684337</v>
+      </c>
+      <c r="I100" s="13">
+        <v>1069956</v>
+      </c>
+      <c r="J100" s="13">
         <v>1374108</v>
       </c>
-      <c r="F100" s="13">
+      <c r="K100" s="13">
         <v>4137392</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>1244113</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>1219579</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>3878814</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2570,8 +3725,13 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2580,8 +3740,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2590,10 +3755,15 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2612,8 +3782,23 @@
       <c r="I104" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2622,150 +3807,245 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F106" s="9">
+        <v>31</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106" s="9">
         <v>24859</v>
       </c>
-      <c r="G106" s="9">
+      <c r="L106" s="9">
         <v>150351</v>
       </c>
-      <c r="H106" s="9">
+      <c r="M106" s="9">
         <v>320390</v>
       </c>
-      <c r="I106" s="9">
+      <c r="N106" s="9">
         <v>284917</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F107" s="11">
+        <v>31</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107" s="11">
         <v>145332</v>
       </c>
-      <c r="G107" s="11">
+      <c r="L107" s="11">
         <v>142574</v>
       </c>
-      <c r="H107" s="11">
+      <c r="M107" s="11">
         <v>169002</v>
       </c>
-      <c r="I107" s="11">
+      <c r="N107" s="11">
         <v>221602</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F108" s="9">
+        <v>31</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K108" s="9">
         <v>986499</v>
       </c>
-      <c r="G108" s="9">
+      <c r="L108" s="9">
         <v>620227</v>
       </c>
-      <c r="H108" s="9">
+      <c r="M108" s="9">
         <v>779625</v>
       </c>
-      <c r="I108" s="9">
+      <c r="N108" s="9">
         <v>1742205</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
+        <v>180335</v>
+      </c>
+      <c r="F109" s="11">
+        <v>175982</v>
+      </c>
+      <c r="G109" s="11">
+        <v>377318</v>
+      </c>
+      <c r="H109" s="11">
+        <v>314879</v>
+      </c>
+      <c r="I109" s="11">
+        <v>389332</v>
+      </c>
+      <c r="J109" s="11">
         <v>320410</v>
       </c>
-      <c r="F109" s="11">
+      <c r="K109" s="11">
         <v>525121</v>
       </c>
-      <c r="G109" s="11">
+      <c r="L109" s="11">
         <v>538354</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>354274</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>507953</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9">
+        <v>627573</v>
+      </c>
+      <c r="F110" s="9">
+        <v>686583</v>
+      </c>
+      <c r="G110" s="9">
+        <v>1027821</v>
+      </c>
+      <c r="H110" s="9">
+        <v>1282700</v>
+      </c>
+      <c r="I110" s="9">
+        <v>1363639</v>
+      </c>
+      <c r="J110" s="9">
         <v>1295972</v>
       </c>
-      <c r="F110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
+        <v>807908</v>
+      </c>
+      <c r="F111" s="13">
+        <v>862565</v>
+      </c>
+      <c r="G111" s="13">
+        <v>1405139</v>
+      </c>
+      <c r="H111" s="13">
+        <v>1597579</v>
+      </c>
+      <c r="I111" s="13">
+        <v>1752971</v>
+      </c>
+      <c r="J111" s="13">
         <v>1616382</v>
       </c>
-      <c r="F111" s="13">
+      <c r="K111" s="13">
         <v>1681811</v>
       </c>
-      <c r="G111" s="13">
+      <c r="L111" s="13">
         <v>1451506</v>
       </c>
-      <c r="H111" s="13">
+      <c r="M111" s="13">
         <v>1623291</v>
       </c>
-      <c r="I111" s="13">
+      <c r="N111" s="13">
         <v>2756677</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2774,8 +4054,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2784,8 +4069,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2794,10 +4084,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2816,8 +4111,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2826,128 +4136,208 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" s="9">
+        <v>31</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L117" s="9">
         <v>1284</v>
       </c>
-      <c r="H117" s="9">
+      <c r="M117" s="9">
         <v>942</v>
       </c>
-      <c r="I117" s="9">
+      <c r="N117" s="9">
         <v>951</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" s="11">
+        <v>31</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L118" s="11">
         <v>671965</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>631227</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>708955</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" s="9">
+        <v>31</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L119" s="9">
         <v>7378617</v>
       </c>
-      <c r="H119" s="9">
+      <c r="M119" s="9">
         <v>6713503</v>
       </c>
-      <c r="I119" s="9">
+      <c r="N119" s="9">
         <v>10553728</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
+        <v>109294</v>
+      </c>
+      <c r="F120" s="11">
+        <v>124819</v>
+      </c>
+      <c r="G120" s="11">
+        <v>12588</v>
+      </c>
+      <c r="H120" s="11">
+        <v>148903</v>
+      </c>
+      <c r="I120" s="11">
+        <v>137668</v>
+      </c>
+      <c r="J120" s="11">
         <v>162897</v>
       </c>
-      <c r="F120" s="11">
+      <c r="K120" s="11">
         <v>145818</v>
       </c>
-      <c r="G120" s="11">
+      <c r="L120" s="11">
         <v>19607</v>
       </c>
-      <c r="H120" s="11">
+      <c r="M120" s="11">
         <v>471714</v>
       </c>
-      <c r="I120" s="11">
+      <c r="N120" s="11">
         <v>34783</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
+        <v>1937224</v>
+      </c>
+      <c r="F121" s="9">
+        <v>2199880</v>
+      </c>
+      <c r="G121" s="9">
+        <v>2406732</v>
+      </c>
+      <c r="H121" s="9">
+        <v>2432425</v>
+      </c>
+      <c r="I121" s="9">
+        <v>211754</v>
+      </c>
+      <c r="J121" s="9">
         <v>2716093</v>
       </c>
-      <c r="F121" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K121" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M121" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N121" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2956,8 +4346,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2966,8 +4361,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2976,10 +4376,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -2998,8 +4403,23 @@
       <c r="I125" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3008,128 +4428,208 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F127" s="9">
+        <v>31</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="9">
         <v>656</v>
       </c>
-      <c r="G127" s="9">
+      <c r="L127" s="9">
         <v>961</v>
       </c>
-      <c r="H127" s="9">
+      <c r="M127" s="9">
         <v>1201</v>
       </c>
-      <c r="I127" s="9">
+      <c r="N127" s="9">
         <v>789</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F128" s="11">
+        <v>31</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K128" s="11">
         <v>472577</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>567132</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>656176</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>633772</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F129" s="9">
+        <v>31</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K129" s="9">
         <v>5135411</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>4848085</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>10231164</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>20320108</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
+        <v>161909</v>
+      </c>
+      <c r="F130" s="11">
+        <v>844</v>
+      </c>
+      <c r="G130" s="11">
+        <v>-1709</v>
+      </c>
+      <c r="H130" s="11">
+        <v>489705</v>
+      </c>
+      <c r="I130" s="11">
+        <v>113709</v>
+      </c>
+      <c r="J130" s="11">
         <v>-1265886</v>
       </c>
-      <c r="F130" s="11">
+      <c r="K130" s="11">
         <v>3477</v>
       </c>
-      <c r="G130" s="11">
+      <c r="L130" s="11">
         <v>21295</v>
       </c>
-      <c r="H130" s="11">
+      <c r="M130" s="11">
         <v>18513</v>
       </c>
-      <c r="I130" s="11">
+      <c r="N130" s="11">
         <v>6269</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
+        <v>1813249</v>
+      </c>
+      <c r="F131" s="9">
+        <v>47253743</v>
+      </c>
+      <c r="G131" s="9">
+        <v>3266349</v>
+      </c>
+      <c r="H131" s="9">
+        <v>145271</v>
+      </c>
+      <c r="I131" s="9">
+        <v>-196736</v>
+      </c>
+      <c r="J131" s="9">
         <v>6305585</v>
       </c>
-      <c r="F131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I131" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3138,8 +4638,13 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3148,8 +4653,13 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3158,10 +4668,15 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3180,8 +4695,23 @@
       <c r="I135" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N135" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3190,128 +4720,208 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F137" s="9">
+        <v>31</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="9">
         <v>610</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>1024</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>1526</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>795</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F138" s="11">
+        <v>31</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K138" s="11">
         <v>524254</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>647028</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>788616</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>-1656424</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F139" s="9">
+        <v>31</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K139" s="9">
         <v>4627780</v>
       </c>
-      <c r="G139" s="9">
+      <c r="L139" s="9">
         <v>6146417</v>
       </c>
-      <c r="H139" s="9">
+      <c r="M139" s="9">
         <v>8263843</v>
       </c>
-      <c r="I139" s="9">
+      <c r="N139" s="9">
         <v>18255370</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11">
+        <v>143652</v>
+      </c>
+      <c r="F140" s="11">
+        <v>952</v>
+      </c>
+      <c r="G140" s="11">
+        <v>-386</v>
+      </c>
+      <c r="H140" s="11">
+        <v>307157</v>
+      </c>
+      <c r="I140" s="11">
+        <v>71281</v>
+      </c>
+      <c r="J140" s="11">
         <v>13163992</v>
       </c>
-      <c r="F140" s="11">
+      <c r="K140" s="11">
         <v>1769</v>
       </c>
-      <c r="G140" s="11">
+      <c r="L140" s="11">
         <v>6389</v>
       </c>
-      <c r="H140" s="11">
+      <c r="M140" s="11">
         <v>10183</v>
       </c>
-      <c r="I140" s="11">
+      <c r="N140" s="11">
         <v>6864</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
+        <v>1644934</v>
+      </c>
+      <c r="F141" s="9">
+        <v>44279298</v>
+      </c>
+      <c r="G141" s="9">
+        <v>-2704336</v>
+      </c>
+      <c r="H141" s="9">
+        <v>3807191</v>
+      </c>
+      <c r="I141" s="9">
+        <v>3992165</v>
+      </c>
+      <c r="J141" s="9">
         <v>3457051</v>
       </c>
-      <c r="F141" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H141" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I141" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N141" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3320,8 +4930,13 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3330,8 +4945,13 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3340,10 +4960,15 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3362,8 +4987,23 @@
       <c r="I145" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3372,128 +5012,208 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F147" s="9">
+        <v>31</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K147" s="9">
         <v>1284</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>942</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>951</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>971</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F148" s="11">
+        <v>31</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K148" s="11">
         <v>671965</v>
       </c>
-      <c r="G148" s="11">
+      <c r="L148" s="11">
         <v>631227</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>708955</v>
       </c>
-      <c r="I148" s="11">
+      <c r="N148" s="11">
         <v>418022</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F149" s="9">
+        <v>31</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K149" s="9">
         <v>7378617</v>
       </c>
-      <c r="G149" s="9">
+      <c r="L149" s="9">
         <v>6713503</v>
       </c>
-      <c r="H149" s="9">
+      <c r="M149" s="9">
         <v>10553728</v>
       </c>
-      <c r="I149" s="9">
+      <c r="N149" s="9">
         <v>16880032</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D150" s="11"/>
-      <c r="E150" s="11">
+      <c r="E150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" s="11">
+        <v>162897</v>
+      </c>
+      <c r="J150" s="11">
         <v>145818</v>
       </c>
-      <c r="F150" s="11">
+      <c r="K150" s="11">
         <v>19607</v>
       </c>
-      <c r="G150" s="11">
+      <c r="L150" s="11">
         <v>471714</v>
       </c>
-      <c r="H150" s="11">
+      <c r="M150" s="11">
         <v>34783</v>
       </c>
-      <c r="I150" s="11">
+      <c r="N150" s="11">
         <v>11623</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D151" s="9"/>
-      <c r="E151" s="9">
+      <c r="E151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I151" s="9">
+        <v>2716093</v>
+      </c>
+      <c r="J151" s="9">
         <v>3712663</v>
       </c>
-      <c r="F151" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H151" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I151" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N151" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3502,8 +5222,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3512,8 +5237,13 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3522,10 +5252,15 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3544,8 +5279,23 @@
       <c r="I155" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3554,10 +5304,15 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -3576,10 +5331,25 @@
       <c r="I157" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="9">
+        <v>0</v>
+      </c>
+      <c r="K157" s="9">
+        <v>0</v>
+      </c>
+      <c r="L157" s="9">
+        <v>0</v>
+      </c>
+      <c r="M157" s="9">
+        <v>0</v>
+      </c>
+      <c r="N157" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -3598,10 +5368,25 @@
       <c r="I158" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="11">
+        <v>0</v>
+      </c>
+      <c r="K158" s="11">
+        <v>0</v>
+      </c>
+      <c r="L158" s="11">
+        <v>0</v>
+      </c>
+      <c r="M158" s="11">
+        <v>0</v>
+      </c>
+      <c r="N158" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -3620,10 +5405,25 @@
       <c r="I159" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="9">
+        <v>0</v>
+      </c>
+      <c r="K159" s="9">
+        <v>0</v>
+      </c>
+      <c r="L159" s="9">
+        <v>0</v>
+      </c>
+      <c r="M159" s="9">
+        <v>0</v>
+      </c>
+      <c r="N159" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -3642,98 +5442,173 @@
       <c r="I160" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="11">
+        <v>0</v>
+      </c>
+      <c r="K160" s="11">
+        <v>0</v>
+      </c>
+      <c r="L160" s="11">
+        <v>0</v>
+      </c>
+      <c r="M160" s="11">
+        <v>0</v>
+      </c>
+      <c r="N160" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
+        <v>2910</v>
+      </c>
+      <c r="F161" s="9">
+        <v>-3638</v>
+      </c>
+      <c r="G161" s="9">
+        <v>0</v>
+      </c>
+      <c r="H161" s="9">
+        <v>150</v>
+      </c>
+      <c r="I161" s="9">
+        <v>477</v>
+      </c>
+      <c r="J161" s="9">
         <v>4109</v>
       </c>
-      <c r="F161" s="9">
+      <c r="K161" s="9">
         <v>-4736</v>
       </c>
-      <c r="G161" s="9">
-        <v>0</v>
-      </c>
-      <c r="H161" s="9">
-        <v>0</v>
-      </c>
-      <c r="I161" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L161" s="9">
+        <v>0</v>
+      </c>
+      <c r="M161" s="9">
+        <v>0</v>
+      </c>
+      <c r="N161" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
+        <v>3063</v>
+      </c>
+      <c r="F162" s="11">
+        <v>1351</v>
+      </c>
+      <c r="G162" s="11">
+        <v>1406</v>
+      </c>
+      <c r="H162" s="11">
+        <v>1403</v>
+      </c>
+      <c r="I162" s="11">
+        <v>12</v>
+      </c>
+      <c r="J162" s="11">
         <v>5375</v>
       </c>
-      <c r="F162" s="11">
+      <c r="K162" s="11">
         <v>7902</v>
       </c>
-      <c r="G162" s="11">
+      <c r="L162" s="11">
         <v>1695</v>
       </c>
-      <c r="H162" s="11">
+      <c r="M162" s="11">
         <v>4234</v>
       </c>
-      <c r="I162" s="11">
+      <c r="N162" s="11">
         <v>2648</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
+        <v>4071</v>
+      </c>
+      <c r="F163" s="9">
+        <v>4353</v>
+      </c>
+      <c r="G163" s="9">
+        <v>5083</v>
+      </c>
+      <c r="H163" s="9">
+        <v>3920</v>
+      </c>
+      <c r="I163" s="9">
+        <v>13076</v>
+      </c>
+      <c r="J163" s="9">
         <v>-56</v>
       </c>
-      <c r="F163" s="9">
+      <c r="K163" s="9">
         <v>5785</v>
       </c>
-      <c r="G163" s="9">
+      <c r="L163" s="9">
         <v>3831</v>
       </c>
-      <c r="H163" s="9">
+      <c r="M163" s="9">
         <v>11400</v>
       </c>
-      <c r="I163" s="9">
+      <c r="N163" s="9">
         <v>6367</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
+        <v>82542</v>
+      </c>
+      <c r="F164" s="11">
+        <v>108454</v>
+      </c>
+      <c r="G164" s="11">
+        <v>43971</v>
+      </c>
+      <c r="H164" s="11">
+        <v>120613</v>
+      </c>
+      <c r="I164" s="11">
+        <v>95173</v>
+      </c>
+      <c r="J164" s="11">
         <v>93031</v>
       </c>
-      <c r="F164" s="11">
+      <c r="K164" s="11">
         <v>108258</v>
       </c>
-      <c r="G164" s="11">
+      <c r="L164" s="11">
         <v>137263</v>
       </c>
-      <c r="H164" s="11">
+      <c r="M164" s="11">
         <v>145437</v>
       </c>
-      <c r="I164" s="11">
+      <c r="N164" s="11">
         <v>151600</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -3752,52 +5627,97 @@
       <c r="I165" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="9">
+        <v>0</v>
+      </c>
+      <c r="K165" s="9">
+        <v>0</v>
+      </c>
+      <c r="L165" s="9">
+        <v>0</v>
+      </c>
+      <c r="M165" s="9">
+        <v>0</v>
+      </c>
+      <c r="N165" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
+        <v>15108</v>
+      </c>
+      <c r="F166" s="11">
+        <v>-6028</v>
+      </c>
+      <c r="G166" s="11">
+        <v>53309</v>
+      </c>
+      <c r="H166" s="11">
+        <v>591</v>
+      </c>
+      <c r="I166" s="11">
+        <v>1156</v>
+      </c>
+      <c r="J166" s="11">
         <v>13784</v>
       </c>
-      <c r="F166" s="11">
+      <c r="K166" s="11">
         <v>21490</v>
       </c>
-      <c r="G166" s="11">
-        <v>0</v>
-      </c>
-      <c r="H166" s="11">
+      <c r="L166" s="11">
+        <v>0</v>
+      </c>
+      <c r="M166" s="11">
         <v>28575</v>
       </c>
-      <c r="I166" s="11">
+      <c r="N166" s="11">
         <v>51101</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15">
+        <v>107694</v>
+      </c>
+      <c r="F167" s="15">
+        <v>104492</v>
+      </c>
+      <c r="G167" s="15">
+        <v>103769</v>
+      </c>
+      <c r="H167" s="15">
+        <v>126677</v>
+      </c>
+      <c r="I167" s="15">
+        <v>109894</v>
+      </c>
+      <c r="J167" s="15">
         <v>116243</v>
       </c>
-      <c r="F167" s="15">
+      <c r="K167" s="15">
         <v>138699</v>
       </c>
-      <c r="G167" s="15">
+      <c r="L167" s="15">
         <v>142789</v>
       </c>
-      <c r="H167" s="15">
+      <c r="M167" s="15">
         <v>189646</v>
       </c>
-      <c r="I167" s="15">
+      <c r="N167" s="15">
         <v>211716</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3806,8 +5726,13 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3816,8 +5741,13 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3826,10 +5756,15 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -3838,8 +5773,13 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -3848,13 +5788,18 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -3862,123 +5807,128 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>

--- a/database/industries/darou/defara/cost/quarterly.xlsx
+++ b/database/industries/darou/defara/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\defara\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\defara\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A55F5-8DFB-4DD5-8A02-7C0F55E165EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B32742-6C3F-4B5C-A0E1-692CD125CC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -725,12 +725,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -745,7 +745,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -794,7 +794,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,7 +843,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -880,7 +880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -895,7 +895,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -932,7 +932,7 @@
         <v>3878814</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -969,7 +969,7 @@
         <v>81496</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>211716</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>4172026</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>-29140</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>4142886</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>-141710</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>4003483</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="11">
-        <v>-1</v>
+        <v>74267</v>
       </c>
       <c r="H19" s="11">
         <v>158928</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <v>12781</v>
+        <v>17919</v>
       </c>
       <c r="L19" s="11">
         <v>242507</v>
@@ -1265,7 +1265,7 @@
         <v>110149</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>-48002</v>
       </c>
       <c r="G20" s="9">
-        <v>-84661</v>
+        <v>-158928</v>
       </c>
       <c r="H20" s="9">
         <v>-84270</v>
@@ -1302,7 +1302,7 @@
         <v>-119272</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>3994360</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>-3855</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>3990505</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1428,7 +1428,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1443,7 +1443,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1458,7 +1458,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1510,7 +1510,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>336770547</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>238382</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>73872</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>10185182</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>37</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>17</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>347267983</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1757,7 +1757,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1772,7 +1772,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1787,7 +1787,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1839,7 +1839,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>29</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>166435000</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>32</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>233972</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>206799</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>35</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>88395834</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>37</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>17</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>255271605</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2086,7 +2086,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2101,7 +2101,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2116,7 +2116,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>39</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2168,7 +2168,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>209909074</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>-57766</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>34</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>177460</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>35</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>54879357</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>37</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>17</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>264908125</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2415,7 +2415,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2430,7 +2430,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2445,7 +2445,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>40</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2497,7 +2497,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>29</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>293296473</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>32</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>530120</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>34</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>103211</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>35</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>43701659</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>37</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>17</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>337631463</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2744,7 +2744,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2759,7 +2759,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2774,7 +2774,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>41</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2826,7 +2826,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>29</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>320390</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>32</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>169002</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>34</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>779625</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>35</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>354274</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>37</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>17</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>1623291</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3073,7 +3073,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3088,7 +3088,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3103,7 +3103,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>43</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3155,7 +3155,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>29</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>131346</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>32</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>148285</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>34</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>4202178</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>35</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>554140</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>37</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>17</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>5035949</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3402,7 +3402,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3417,7 +3417,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3432,7 +3432,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>44</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3484,7 +3484,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>29</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>166819</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>32</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>95685</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>34</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>3239598</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>35</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>376712</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>37</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>17</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>3878814</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3731,7 +3731,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3746,7 +3746,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3761,7 +3761,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>45</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3813,7 +3813,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>29</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>284917</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>32</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>221602</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>34</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>1742205</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>35</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>507953</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>37</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>17</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>2756677</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4060,7 +4060,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4075,7 +4075,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4090,7 +4090,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>46</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4142,7 +4142,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>29</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>32</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>708955</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>34</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>10553728</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>35</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>34783</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>37</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4352,7 +4352,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4367,7 +4367,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4382,7 +4382,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>50</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4434,7 +4434,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>29</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>32</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>633772</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>34</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>20320108</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>35</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>6269</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>37</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4644,7 +4644,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4659,7 +4659,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4674,7 +4674,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>51</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4726,7 +4726,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>29</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>32</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>-1656424</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>34</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>18255370</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>35</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>6864</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>37</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4936,7 +4936,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4951,7 +4951,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4966,7 +4966,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>52</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -5018,7 +5018,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>29</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>32</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>418022</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>34</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>16880032</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>35</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>11623</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>37</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5228,7 +5228,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5243,7 +5243,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5258,7 +5258,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>53</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5310,7 +5310,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>54</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>55</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>56</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>57</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>58</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>59</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>60</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>6367</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>61</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>151600</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>62</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>63</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>51101</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>17</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>211716</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5732,7 +5732,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5747,7 +5747,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5762,7 +5762,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
         <v>64</v>
       </c>
@@ -5779,7 +5779,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5794,7 +5794,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>65</v>
       </c>
@@ -5813,7 +5813,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>67</v>
       </c>
@@ -5824,7 +5824,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>68</v>
       </c>
@@ -5835,7 +5835,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>70</v>
       </c>
@@ -5846,7 +5846,7 @@
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>71</v>
       </c>
@@ -5857,7 +5857,7 @@
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>72</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>74</v>
       </c>
@@ -5879,7 +5879,7 @@
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>76</v>
       </c>
@@ -5890,7 +5890,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>78</v>
       </c>
@@ -5901,7 +5901,7 @@
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>79</v>
       </c>
@@ -5912,7 +5912,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>68</v>
       </c>
@@ -5923,7 +5923,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>80</v>
       </c>
